--- a/src/birmingham/Birmingham.xlsx
+++ b/src/birmingham/Birmingham.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\birmingham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6382B8A-AFD9-4764-8C86-56103F418C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CEC34A-BAB6-471E-829C-E139EA357E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="城市" sheetId="9" r:id="rId1"/>
@@ -569,11 +569,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A9ED97-9D9A-417B-9E05-7489284E0688}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomRight" activeCell="F60" sqref="F3:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,7 +638,7 @@
         <v>942</v>
       </c>
       <c r="F3" t="str">
-        <f>"{type:"""&amp;B3&amp;""",location:["""&amp;A3&amp;""","&amp;C3&amp;"],position:["&amp;D3&amp;","&amp;E3&amp;"]},"</f>
+        <f t="shared" ref="F3:F34" si="0">"{type:"""&amp;B3&amp;""",location:["""&amp;A3&amp;""","&amp;C3&amp;"],position:["&amp;D3&amp;","&amp;E3&amp;"]},"</f>
         <v>{type:"industry",location:["berby",0],position:[2867,942]},</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>942</v>
       </c>
       <c r="F4" t="str">
-        <f>"{type:"""&amp;B4&amp;""",location:["""&amp;A4&amp;""","&amp;C4&amp;"],position:["&amp;D4&amp;","&amp;E4&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["berby",1],position:[3054,942]},</v>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>754</v>
       </c>
       <c r="F5" t="str">
-        <f>"{type:"""&amp;B5&amp;""",location:["""&amp;A5&amp;""","&amp;C5&amp;"],position:["&amp;D5&amp;","&amp;E5&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["berby",2],position:[2960,754]},</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>2717</v>
       </c>
       <c r="F6" t="str">
-        <f>"{type:"""&amp;B6&amp;""",location:["""&amp;A6&amp;""","&amp;C6&amp;"],position:["&amp;D6&amp;","&amp;E6&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["birmingham",0],position:[2338,2717]},</v>
       </c>
     </row>
@@ -722,7 +722,7 @@
         <v>2717</v>
       </c>
       <c r="F7" t="str">
-        <f>"{type:"""&amp;B7&amp;""",location:["""&amp;A7&amp;""","&amp;C7&amp;"],position:["&amp;D7&amp;","&amp;E7&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["birmingham",1],position:[2524,2717]},</v>
       </c>
     </row>
@@ -743,7 +743,7 @@
         <v>2529</v>
       </c>
       <c r="F8" t="str">
-        <f>"{type:"""&amp;B8&amp;""",location:["""&amp;A8&amp;""","&amp;C8&amp;"],position:["&amp;D8&amp;","&amp;E8&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["birmingham",2],position:[2338,2529]},</v>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>2529</v>
       </c>
       <c r="F9" t="str">
-        <f>"{type:"""&amp;B9&amp;""",location:["""&amp;A9&amp;""","&amp;C9&amp;"],position:["&amp;D9&amp;","&amp;E9&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["birmingham",3],position:[2524,2529]},</v>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>918</v>
       </c>
       <c r="F10" t="str">
-        <f>"{type:"""&amp;B10&amp;""",location:["""&amp;A10&amp;""","&amp;C10&amp;"],position:["&amp;D10&amp;","&amp;E10&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["stone",0],position:[1053,918]},</v>
       </c>
     </row>
@@ -806,7 +806,7 @@
         <v>918</v>
       </c>
       <c r="F11" t="str">
-        <f>"{type:"""&amp;B11&amp;""",location:["""&amp;A11&amp;""","&amp;C11&amp;"],position:["&amp;D11&amp;","&amp;E11&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["stone",1],position:[1238,918]},</v>
       </c>
     </row>
@@ -827,7 +827,7 @@
         <v>2163</v>
       </c>
       <c r="F12" t="str">
-        <f>"{type:"""&amp;B12&amp;""",location:["""&amp;A12&amp;""","&amp;C12&amp;"],position:["&amp;D12&amp;","&amp;E12&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["walsall",0],position:[1947,2163]},</v>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>2163</v>
       </c>
       <c r="F13" t="str">
-        <f>"{type:"""&amp;B13&amp;""",location:["""&amp;A13&amp;""","&amp;C13&amp;"],position:["&amp;D13&amp;","&amp;E13&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["walsall",1],position:[2132,2163]},</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
         <v>1410</v>
       </c>
       <c r="F14" t="str">
-        <f>"{type:"""&amp;B14&amp;""",location:["""&amp;A14&amp;""","&amp;C14&amp;"],position:["&amp;D14&amp;","&amp;E14&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["burton_upon_trent",0],position:[2556,1410]},</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
         <v>1410</v>
       </c>
       <c r="F15" t="str">
-        <f>"{type:"""&amp;B15&amp;""",location:["""&amp;A15&amp;""","&amp;C15&amp;"],position:["&amp;D15&amp;","&amp;E15&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["burton_upon_trent",1],position:[2742,1410]},</v>
       </c>
     </row>
@@ -911,7 +911,7 @@
         <v>2071</v>
       </c>
       <c r="F16" t="str">
-        <f>"{type:"""&amp;B16&amp;""",location:["""&amp;A16&amp;""","&amp;C16&amp;"],position:["&amp;D16&amp;","&amp;E16&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["wolverhampton",0],position:[1302,2071]},</v>
       </c>
     </row>
@@ -932,7 +932,7 @@
         <v>2071</v>
       </c>
       <c r="F17" t="str">
-        <f>"{type:"""&amp;B17&amp;""",location:["""&amp;A17&amp;""","&amp;C17&amp;"],position:["&amp;D17&amp;","&amp;E17&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["wolverhampton",1],position:[1486,2071]},</v>
       </c>
     </row>
@@ -953,7 +953,7 @@
         <v>1293</v>
       </c>
       <c r="F18" t="str">
-        <f>"{type:"""&amp;B18&amp;""",location:["""&amp;A18&amp;""","&amp;C18&amp;"],position:["&amp;D18&amp;","&amp;E18&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["stafford",0],position:[1425,1293]},</v>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>1293</v>
       </c>
       <c r="F19" t="str">
-        <f>"{type:"""&amp;B19&amp;""",location:["""&amp;A19&amp;""","&amp;C19&amp;"],position:["&amp;D19&amp;","&amp;E19&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["stafford",1],position:[1613,1293]},</v>
       </c>
     </row>
@@ -995,7 +995,7 @@
         <v>1703</v>
       </c>
       <c r="F20" t="str">
-        <f>"{type:"""&amp;B20&amp;""",location:["""&amp;A20&amp;""","&amp;C20&amp;"],position:["&amp;D20&amp;","&amp;E20&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["cannock",0],position:[1722,1703]},</v>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         <v>1703</v>
       </c>
       <c r="F21" t="str">
-        <f>"{type:"""&amp;B21&amp;""",location:["""&amp;A21&amp;""","&amp;C21&amp;"],position:["&amp;D21&amp;","&amp;E21&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["cannock",1],position:[1906,1703]},</v>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
         <v>1911</v>
       </c>
       <c r="F22" t="str">
-        <f>"{type:"""&amp;B22&amp;""",location:["""&amp;A22&amp;""","&amp;C22&amp;"],position:["&amp;D22&amp;","&amp;E22&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["tamworth",0],position:[2616,1911]},</v>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
         <v>1911</v>
       </c>
       <c r="F23" t="str">
-        <f>"{type:"""&amp;B23&amp;""",location:["""&amp;A23&amp;""","&amp;C23&amp;"],position:["&amp;D23&amp;","&amp;E23&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["tamworth",1],position:[2797,1911]},</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
         <v>495</v>
       </c>
       <c r="F24" t="str">
-        <f>"{type:"""&amp;B24&amp;""",location:["""&amp;A24&amp;""","&amp;C24&amp;"],position:["&amp;D24&amp;","&amp;E24&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["stoke_on_trent",0],position:[1470,495]},</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>495</v>
       </c>
       <c r="F25" t="str">
-        <f>"{type:"""&amp;B25&amp;""",location:["""&amp;A25&amp;""","&amp;C25&amp;"],position:["&amp;D25&amp;","&amp;E25&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["stoke_on_trent",1],position:[1658,495]},</v>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>309</v>
       </c>
       <c r="F26" t="str">
-        <f>"{type:"""&amp;B26&amp;""",location:["""&amp;A26&amp;""","&amp;C26&amp;"],position:["&amp;D26&amp;","&amp;E26&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["stoke_on_trent",2],position:[1564,309]},</v>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
         <v>2843</v>
       </c>
       <c r="F27" t="str">
-        <f>"{type:"""&amp;B27&amp;""",location:["""&amp;A27&amp;""","&amp;C27&amp;"],position:["&amp;D27&amp;","&amp;E27&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["coventry",0],position:[3067,2843]},</v>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
         <v>2843</v>
       </c>
       <c r="F28" t="str">
-        <f>"{type:"""&amp;B28&amp;""",location:["""&amp;A28&amp;""","&amp;C28&amp;"],position:["&amp;D28&amp;","&amp;E28&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["coventry",1],position:[3254,2843]},</v>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
         <v>2655</v>
       </c>
       <c r="F29" t="str">
-        <f>"{type:"""&amp;B29&amp;""",location:["""&amp;A29&amp;""","&amp;C29&amp;"],position:["&amp;D29&amp;","&amp;E29&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["coventry",2],position:[3160,2655]},</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
         <v>2562</v>
       </c>
       <c r="F30" t="str">
-        <f>"{type:"""&amp;B30&amp;""",location:["""&amp;A30&amp;""","&amp;C30&amp;"],position:["&amp;D30&amp;","&amp;E30&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["dudley",0],position:[1487,2562]},</v>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>2562</v>
       </c>
       <c r="F31" t="str">
-        <f>"{type:"""&amp;B31&amp;""",location:["""&amp;A31&amp;""","&amp;C31&amp;"],position:["&amp;D31&amp;","&amp;E31&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["dudley",1],position:[1672,2562]},</v>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
         <v>849</v>
       </c>
       <c r="F32" t="str">
-        <f>"{type:"""&amp;B32&amp;""",location:["""&amp;A32&amp;""","&amp;C32&amp;"],position:["&amp;D32&amp;","&amp;E32&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["uttoxeter",0],position:[2083,849]},</v>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
         <v>849</v>
       </c>
       <c r="F33" t="str">
-        <f>"{type:"""&amp;B33&amp;""",location:["""&amp;A33&amp;""","&amp;C33&amp;"],position:["&amp;D33&amp;","&amp;E33&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["uttoxeter",1],position:[2272,849]},</v>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>2247</v>
       </c>
       <c r="F34" t="str">
-        <f>"{type:"""&amp;B34&amp;""",location:["""&amp;A34&amp;""","&amp;C34&amp;"],position:["&amp;D34&amp;","&amp;E34&amp;"]},"</f>
+        <f t="shared" si="0"/>
         <v>{type:"industry",location:["coalbrookdale",0],position:[750,2247]},</v>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>2247</v>
       </c>
       <c r="F35" t="str">
-        <f>"{type:"""&amp;B35&amp;""",location:["""&amp;A35&amp;""","&amp;C35&amp;"],position:["&amp;D35&amp;","&amp;E35&amp;"]},"</f>
+        <f t="shared" ref="F35:F66" si="1">"{type:"""&amp;B35&amp;""",location:["""&amp;A35&amp;""","&amp;C35&amp;"],position:["&amp;D35&amp;","&amp;E35&amp;"]},"</f>
         <v>{type:"industry",location:["coalbrookdale",1],position:[936,2247]},</v>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
         <v>2059</v>
       </c>
       <c r="F36" t="str">
-        <f>"{type:"""&amp;B36&amp;""",location:["""&amp;A36&amp;""","&amp;C36&amp;"],position:["&amp;D36&amp;","&amp;E36&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["coalbrookdale",2],position:[843,2059]},</v>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
         <v>2975</v>
       </c>
       <c r="F37" t="str">
-        <f>"{type:"""&amp;B37&amp;""",location:["""&amp;A37&amp;""","&amp;C37&amp;"],position:["&amp;D37&amp;","&amp;E37&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["kidderminster",0],position:[1208,2975]},</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>2975</v>
       </c>
       <c r="F38" t="str">
-        <f>"{type:"""&amp;B38&amp;""",location:["""&amp;A38&amp;""","&amp;C38&amp;"],position:["&amp;D38&amp;","&amp;E38&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["kidderminster",1],position:[1394,2975]},</v>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
         <v>3494</v>
       </c>
       <c r="F39" t="str">
-        <f>"{type:"""&amp;B39&amp;""",location:["""&amp;A39&amp;""","&amp;C39&amp;"],position:["&amp;D39&amp;","&amp;E39&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["worcester",0],position:[1260,3494]},</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
         <v>3494</v>
       </c>
       <c r="F40" t="str">
-        <f>"{type:"""&amp;B40&amp;""",location:["""&amp;A40&amp;""","&amp;C40&amp;"],position:["&amp;D40&amp;","&amp;E40&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["worcester",1],position:[1448,3494]},</v>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
         <v>205</v>
       </c>
       <c r="F41" t="str">
-        <f>"{type:"""&amp;B41&amp;""",location:["""&amp;A41&amp;""","&amp;C41&amp;"],position:["&amp;D41&amp;","&amp;E41&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["leek",0],position:[2034,205]},</v>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
         <v>205</v>
       </c>
       <c r="F42" t="str">
-        <f>"{type:"""&amp;B42&amp;""",location:["""&amp;A42&amp;""","&amp;C42&amp;"],position:["&amp;D42&amp;","&amp;E42&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["leek",1],position:[2221,205]},</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>264</v>
       </c>
       <c r="F43" t="str">
-        <f>"{type:"""&amp;B43&amp;""",location:["""&amp;A43&amp;""","&amp;C43&amp;"],position:["&amp;D43&amp;","&amp;E43&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["belper",0],position:[2739,264]},</v>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
         <v>264</v>
       </c>
       <c r="F44" t="str">
-        <f>"{type:"""&amp;B44&amp;""",location:["""&amp;A44&amp;""","&amp;C44&amp;"],position:["&amp;D44&amp;","&amp;E44&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["belper",1],position:[2926,264]},</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>264</v>
       </c>
       <c r="F45" t="str">
-        <f>"{type:"""&amp;B45&amp;""",location:["""&amp;A45&amp;""","&amp;C45&amp;"],position:["&amp;D45&amp;","&amp;E45&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["belper",2],position:[3112,264]},</v>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
         <v>3189</v>
       </c>
       <c r="F46" t="str">
-        <f>"{type:"""&amp;B46&amp;""",location:["""&amp;A46&amp;""","&amp;C46&amp;"],position:["&amp;D46&amp;","&amp;E46&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["redditch",0],position:[2150,3189]},</v>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
         <v>3189</v>
       </c>
       <c r="F47" t="str">
-        <f>"{type:"""&amp;B47&amp;""",location:["""&amp;A47&amp;""","&amp;C47&amp;"],position:["&amp;D47&amp;","&amp;E47&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["redditch",1],position:[2339,3189]},</v>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
         <v>2315</v>
       </c>
       <c r="F48" t="str">
-        <f>"{type:"""&amp;B48&amp;""",location:["""&amp;A48&amp;""","&amp;C48&amp;"],position:["&amp;D48&amp;","&amp;E48&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["nuneaton",0],position:[2976,2315]},</v>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
         <v>2315</v>
       </c>
       <c r="F49" t="str">
-        <f>"{type:"""&amp;B49&amp;""",location:["""&amp;A49&amp;""","&amp;C49&amp;"],position:["&amp;D49&amp;","&amp;E49&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["nuneaton",1],position:[3164,2315]},</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
         <v>1653</v>
       </c>
       <c r="F50" t="str">
-        <f>"{type:"""&amp;B50&amp;""",location:["""&amp;A50&amp;""","&amp;C50&amp;"],position:["&amp;D50&amp;","&amp;E50&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["anonymous_1",0],position:[1108,1653]},</v>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
         <v>3275</v>
       </c>
       <c r="F51" t="str">
-        <f>"{type:"""&amp;B51&amp;""",location:["""&amp;A51&amp;""","&amp;C51&amp;"],position:["&amp;D51&amp;","&amp;E51&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"industry",location:["anonymous_2",0],position:[952,3275]},</v>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>426</v>
       </c>
       <c r="F52" t="str">
-        <f>"{type:"""&amp;B52&amp;""",location:["""&amp;A52&amp;""","&amp;C52&amp;"],position:["&amp;D52&amp;","&amp;E52&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"merchant",location:["warrington",0],position:[933,426]},</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
         <v>426</v>
       </c>
       <c r="F53" t="str">
-        <f>"{type:"""&amp;B53&amp;""",location:["""&amp;A53&amp;""","&amp;C53&amp;"],position:["&amp;D53&amp;","&amp;E53&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"merchant",location:["warrington",1],position:[1122,426]},</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>680</v>
       </c>
       <c r="F54" t="str">
-        <f>"{type:"""&amp;B54&amp;""",location:["""&amp;A54&amp;""","&amp;C54&amp;"],position:["&amp;D54&amp;","&amp;E54&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"merchant",location:["nottingham",0],position:[3437,680]},</v>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>680</v>
       </c>
       <c r="F55" t="str">
-        <f>"{type:"""&amp;B55&amp;""",location:["""&amp;A55&amp;""","&amp;C55&amp;"],position:["&amp;D55&amp;","&amp;E55&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"merchant",location:["nottingham",1],position:[3625,680]},</v>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
         <v>3328</v>
       </c>
       <c r="F56" t="str">
-        <f>"{type:"""&amp;B56&amp;""",location:["""&amp;A56&amp;""","&amp;C56&amp;"],position:["&amp;D56&amp;","&amp;E56&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"merchant",location:["oxford",0],position:[3127,3328]},</v>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
         <v>3328</v>
       </c>
       <c r="F57" t="str">
-        <f>"{type:"""&amp;B57&amp;""",location:["""&amp;A57&amp;""","&amp;C57&amp;"],position:["&amp;D57&amp;","&amp;E57&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"merchant",location:["oxford",1],position:[3314,3328]},</v>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
         <v>3632</v>
       </c>
       <c r="F58" t="str">
-        <f>"{type:"""&amp;B58&amp;""",location:["""&amp;A58&amp;""","&amp;C58&amp;"],position:["&amp;D58&amp;","&amp;E58&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"merchant",location:["gloucester",0],position:[2238,3632]},</v>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
         <v>3632</v>
       </c>
       <c r="F59" t="str">
-        <f>"{type:"""&amp;B59&amp;""",location:["""&amp;A59&amp;""","&amp;C59&amp;"],position:["&amp;D59&amp;","&amp;E59&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"merchant",location:["gloucester",1],position:[2422,3632]},</v>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
         <v>2268</v>
       </c>
       <c r="F60" t="str">
-        <f>"{type:"""&amp;B60&amp;""",location:["""&amp;A60&amp;""","&amp;C60&amp;"],position:["&amp;D60&amp;","&amp;E60&amp;"]},"</f>
+        <f t="shared" si="1"/>
         <v>{type:"merchant",location:["shrewsbury",0],position:[269,2268]},</v>
       </c>
     </row>
@@ -1849,11 +1849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495315FD-5477-4869-A876-91E9A318A711}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1918,8 +1918,8 @@
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <f>"{uid:"""&amp;A2&amp;""",head:"""&amp;B2&amp;""",tail:"""&amp;C2&amp;""",position:["""&amp;D2&amp;""","&amp;E2&amp;"],eras:["&amp;LOWER(F2)&amp;","&amp;LOWER(G2)&amp;"]},"</f>
-        <v>{uid:"1",head:"warrington",tail:"stoke_on_trent",position:["1351",364],eras:[true,true]},</v>
+        <f>"{uid:"&amp;A2&amp;",head:"""&amp;B2&amp;""",tail:"""&amp;C2&amp;""",position:["&amp;D2&amp;","&amp;E2&amp;"],eras:["&amp;LOWER(F2)&amp;","&amp;LOWER(G2)&amp;"]},"</f>
+        <v>{uid:1,head:"warrington",tail:"stoke_on_trent",position:[1351,364],eras:[true,true]},</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1945,8 +1945,8 @@
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H40" si="0">"{uid:"""&amp;A3&amp;""",head:"""&amp;B3&amp;""",tail:"""&amp;C3&amp;""",position:["""&amp;D3&amp;""","&amp;E3&amp;"],eras:["&amp;LOWER(F3)&amp;","&amp;LOWER(G3)&amp;"]},"</f>
-        <v>{uid:"2",head:"stoke_on_trent",tail:"leek",position:["1825",299],eras:[true,true]},</v>
+        <f t="shared" ref="H3:H40" si="0">"{uid:"&amp;A3&amp;",head:"""&amp;B3&amp;""",tail:"""&amp;C3&amp;""",position:["&amp;D3&amp;","&amp;E3&amp;"],eras:["&amp;LOWER(F3)&amp;","&amp;LOWER(G3)&amp;"]},"</f>
+        <v>{uid:2,head:"stoke_on_trent",tail:"leek",position:[1825,299],eras:[true,true]},</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"3",head:"stoke_on_trent",tail:"stone",position:["1399",814],eras:[true,true]},</v>
+        <v>{uid:3,head:"stoke_on_trent",tail:"stone",position:[1399,814],eras:[true,true]},</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"4",head:"leek",tail:"belper",position:["2515",251],eras:[false,true]},</v>
+        <v>{uid:4,head:"leek",tail:"belper",position:[2515,251],eras:[false,true]},</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"5",head:"belper",tail:"derby",position:["2994",602],eras:[true,true]},</v>
+        <v>{uid:5,head:"belper",tail:"derby",position:[2994,602],eras:[true,true]},</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"6",head:"stone",tail:"uttoxeter",position:["1681",933],eras:[false,true]},</v>
+        <v>{uid:6,head:"stone",tail:"uttoxeter",position:[1681,933],eras:[false,true]},</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"7",head:"stone",tail:"burton_on_trent",position:["1940",1149],eras:[true,true]},</v>
+        <v>{uid:7,head:"stone",tail:"burton_on_trent",position:[1940,1149],eras:[true,true]},</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"8",head:"stone",tail:"stafford",position:["1187",1296],eras:[true,true]},</v>
+        <v>{uid:8,head:"stone",tail:"stafford",position:[1187,1296],eras:[true,true]},</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"9",head:"uttoxeter",tail:"derby",position:["2591",984],eras:[false,true]},</v>
+        <v>{uid:9,head:"uttoxeter",tail:"derby",position:[2591,984],eras:[false,true]},</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"10",head:"derby",tail:"nottingham",position:["3211",801],eras:[true,true]},</v>
+        <v>{uid:10,head:"derby",tail:"nottingham",position:[3211,801],eras:[true,true]},</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"11",head:"derby",tail:"burton_on_trent",position:["2974",1281],eras:[true,true]},</v>
+        <v>{uid:11,head:"derby",tail:"burton_on_trent",position:[2974,1281],eras:[true,true]},</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"12",head:"stafford",tail:"cannock",position:["1838",1533],eras:[true,true]},</v>
+        <v>{uid:12,head:"stafford",tail:"cannock",position:[1838,1533],eras:[true,true]},</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"13",head:"burton_on_trent",tail:"cannock",position:["2267",1533],eras:[false,true]},</v>
+        <v>{uid:13,head:"burton_on_trent",tail:"cannock",position:[2267,1533],eras:[false,true]},</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"14",head:"cannock",tail:"anonymous_1",position:["1439",1704],eras:[true,true]},</v>
+        <v>{uid:14,head:"cannock",tail:"anonymous_1",position:[1439,1704],eras:[true,true]},</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"15",head:"cannock",tail:"wolverhampton",position:["1520",1902],eras:[true,true]},</v>
+        <v>{uid:15,head:"cannock",tail:"wolverhampton",position:[1520,1902],eras:[true,true]},</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"16",head:"cannock",tail:"walsall",position:["2102",1994],eras:[true,true]},</v>
+        <v>{uid:16,head:"cannock",tail:"walsall",position:[2102,1994],eras:[true,true]},</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"17",head:"burton_on_trent",tail:"walsall",position:["2297",1859],eras:[true,false]},</v>
+        <v>{uid:17,head:"burton_on_trent",tail:"walsall",position:[2297,1859],eras:[true,false]},</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"18",head:"burton_on_trent",tail:"tamworth",position:["2735",1757],eras:[true,true]},</v>
+        <v>{uid:18,head:"burton_on_trent",tail:"tamworth",position:[2735,1757],eras:[true,true]},</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"19",head:"shrewsbury",tail:"coalbrookdale",position:["600",2129],eras:[true,true]},</v>
+        <v>{uid:19,head:"shrewsbury",tail:"coalbrookdale",position:[600,2129],eras:[true,true]},</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"20",head:"coalbrookdale",tail:"wolverhampton",position:["1097",2129],eras:[true,true]},</v>
+        <v>{uid:20,head:"coalbrookdale",tail:"wolverhampton",position:[1097,2129],eras:[true,true]},</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"21",head:"wolverhampton",tail:"walsall",position:["1748",2157],eras:[true,true]},</v>
+        <v>{uid:21,head:"wolverhampton",tail:"walsall",position:[1748,2157],eras:[true,true]},</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"22",head:"walsall",tail:"tamworth",position:["2453",2178],eras:[false,true]},</v>
+        <v>{uid:22,head:"walsall",tail:"tamworth",position:[2453,2178],eras:[false,true]},</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"23",head:"coalbrookdale",tail:"kidderminster",position:["942",2742],eras:[true,true]},</v>
+        <v>{uid:23,head:"coalbrookdale",tail:"kidderminster",position:[942,2742],eras:[true,true]},</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"24",head:"wolverhampton",tail:"dudley",position:["1428",2421],eras:[true,true]},</v>
+        <v>{uid:24,head:"wolverhampton",tail:"dudley",position:[1428,2421],eras:[true,true]},</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"25",head:"walsall",tail:"birmingham",position:["2154",2511],eras:[true,true]},</v>
+        <v>{uid:25,head:"walsall",tail:"birmingham",position:[2154,2511],eras:[true,true]},</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"26",head:"tamworth",tail:"birmingham",position:["2718",2331],eras:[true,true]},</v>
+        <v>{uid:26,head:"tamworth",tail:"birmingham",position:[2718,2331],eras:[true,true]},</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"27",head:"tamworth",tail:"nuneaton",position:["3065",2082],eras:[true,true]},</v>
+        <v>{uid:27,head:"tamworth",tail:"nuneaton",position:[3065,2082],eras:[true,true]},</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"28",head:"kidderminster",tail:"dudley",position:["1347",2819],eras:[true,true]},</v>
+        <v>{uid:28,head:"kidderminster",tail:"dudley",position:[1347,2819],eras:[true,true]},</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"29",head:"dudley",tail:"birmingham",position:["2012",2681],eras:[true,true]},</v>
+        <v>{uid:29,head:"dudley",tail:"birmingham",position:[2012,2681],eras:[true,true]},</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"30",head:"nuneaton",tail:"birmingham",position:["2792",2556],eras:[false,true]},</v>
+        <v>{uid:30,head:"nuneaton",tail:"birmingham",position:[2792,2556],eras:[false,true]},</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"31",head:"nuneaton",tail:"coventry",position:["3388",2589],eras:[false,true]},</v>
+        <v>{uid:31,head:"nuneaton",tail:"coventry",position:[3388,2589],eras:[false,true]},</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"32",head:"birmingham",tail:"coventry",position:["2816",2868],eras:[true,true]},</v>
+        <v>{uid:32,head:"birmingham",tail:"coventry",position:[2816,2868],eras:[true,true]},</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"33",head:"kidderminster",tail:"worcester",position:["1300",3330],eras:[true,true]},</v>
+        <v>{uid:33,head:"kidderminster",tail:"worcester",position:[1300,3330],eras:[true,true]},</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"34",head:"worcester",tail:"birmingham",position:["1884",3113],eras:[true,true]},</v>
+        <v>{uid:34,head:"worcester",tail:"birmingham",position:[1884,3113],eras:[true,true]},</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"35",head:"birmingham",tail:"redditch",position:["2396",3046],eras:[false,true]},</v>
+        <v>{uid:35,head:"birmingham",tail:"redditch",position:[2396,3046],eras:[false,true]},</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"36",head:"birmingham",tail:"oxford",position:["2808",3054],eras:[true,true]},</v>
+        <v>{uid:36,head:"birmingham",tail:"oxford",position:[2808,3054],eras:[true,true]},</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"37",head:"worcester",tail:"gloucester",position:["1700",3679],eras:[true,true]},</v>
+        <v>{uid:37,head:"worcester",tail:"gloucester",position:[1700,3679],eras:[true,true]},</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"38",head:"gloucester",tail:"redditch",position:["1956",3417],eras:[true,true]},</v>
+        <v>{uid:38,head:"gloucester",tail:"redditch",position:[1956,3417],eras:[true,true]},</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>{uid:"39",head:"redditch",tail:"oxford",position:["2592",3309],eras:[true,true]},</v>
+        <v>{uid:39,head:"redditch",tail:"oxford",position:[2592,3309],eras:[true,true]},</v>
       </c>
     </row>
   </sheetData>

--- a/src/birmingham/Birmingham.xlsx
+++ b/src/birmingham/Birmingham.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\birmingham\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\river-minigames\src\birmingham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CEC34A-BAB6-471E-829C-E139EA357E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1CF40-5CFC-419B-AC5D-7F012EFEF553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="城市" sheetId="9" r:id="rId1"/>
-    <sheet name="道路" sheetId="10" r:id="rId2"/>
-    <sheet name="产业" sheetId="11" r:id="rId3"/>
+    <sheet name="道路(origin)" sheetId="10" r:id="rId2"/>
+    <sheet name="道路" sheetId="12" r:id="rId3"/>
+    <sheet name="产业" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="77">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +241,84 @@
   <si>
     <t>burton_on_trent</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anonymous_1</t>
+  </si>
+  <si>
+    <t>cannock</t>
+  </si>
+  <si>
+    <t>belper</t>
+  </si>
+  <si>
+    <t>derby</t>
+  </si>
+  <si>
+    <t>leek</t>
+  </si>
+  <si>
+    <t>birmingham</t>
+  </si>
+  <si>
+    <t>coventry</t>
+  </si>
+  <si>
+    <t>dudley</t>
+  </si>
+  <si>
+    <t>nuneaton</t>
+  </si>
+  <si>
+    <t>oxford</t>
+  </si>
+  <si>
+    <t>redditch</t>
+  </si>
+  <si>
+    <t>walsall</t>
+  </si>
+  <si>
+    <t>worcester</t>
+  </si>
+  <si>
+    <t>tamworth</t>
+  </si>
+  <si>
+    <t>burton_on_trent</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>stafford</t>
+  </si>
+  <si>
+    <t>wolverhampton</t>
+  </si>
+  <si>
+    <t>coalbrookdale</t>
+  </si>
+  <si>
+    <t>kidderminster</t>
+  </si>
+  <si>
+    <t>shrewsbury</t>
+  </si>
+  <si>
+    <t>nottingham</t>
+  </si>
+  <si>
+    <t>uttoxeter</t>
+  </si>
+  <si>
+    <t>gloucester</t>
+  </si>
+  <si>
+    <t>stoke_on_trent</t>
+  </si>
+  <si>
+    <t>warrington</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1389,7 @@
         <v>2247</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ref="F35:F66" si="1">"{type:"""&amp;B35&amp;""",location:["""&amp;A35&amp;""","&amp;C35&amp;"],position:["&amp;D35&amp;","&amp;E35&amp;"]},"</f>
+        <f t="shared" ref="F35:F60" si="1">"{type:"""&amp;B35&amp;""",location:["""&amp;A35&amp;""","&amp;C35&amp;"],position:["&amp;D35&amp;","&amp;E35&amp;"]},"</f>
         <v>{type:"industry",location:["coalbrookdale",1],position:[936,2247]},</v>
       </c>
     </row>
@@ -1849,11 +1928,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495315FD-5477-4869-A876-91E9A318A711}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:H40"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="A1:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2956,11 +3035,1111 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DF367E-5338-4B57-BE09-5A20016AD75D}">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="115.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>1439</v>
+      </c>
+      <c r="E2">
+        <v>1704</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"{uid:"&amp;A2&amp;",head:"""&amp;B2&amp;""",tail:"""&amp;C2&amp;""",position:["&amp;D2&amp;","&amp;E2&amp;"],eras:["&amp;LOWER(F2)&amp;","&amp;LOWER(G2)&amp;"]},"</f>
+        <v>{uid:1,head:"anonymous_1",tail:"cannock",position:[1439,1704],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>2994</v>
+      </c>
+      <c r="E3">
+        <v>602</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H40" si="0">"{uid:"&amp;A3&amp;",head:"""&amp;B3&amp;""",tail:"""&amp;C3&amp;""",position:["&amp;D3&amp;","&amp;E3&amp;"],eras:["&amp;LOWER(F3)&amp;","&amp;LOWER(G3)&amp;"]},"</f>
+        <v>{uid:2,head:"belper",tail:"derby",position:[2994,602],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>2515</v>
+      </c>
+      <c r="E4">
+        <v>251</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:3,head:"belper",tail:"leek",position:[2515,251],eras:[false,true]},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>2816</v>
+      </c>
+      <c r="E5">
+        <v>2868</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:4,head:"birmingham",tail:"coventry",position:[2816,2868],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>2012</v>
+      </c>
+      <c r="E6">
+        <v>2681</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:5,head:"birmingham",tail:"dudley",position:[2012,2681],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>2792</v>
+      </c>
+      <c r="E7">
+        <v>2556</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:6,head:"birmingham",tail:"nuneaton",position:[2792,2556],eras:[false,true]},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>2808</v>
+      </c>
+      <c r="E8">
+        <v>3054</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:7,head:"birmingham",tail:"oxford",position:[2808,3054],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>2396</v>
+      </c>
+      <c r="E9">
+        <v>3046</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:8,head:"birmingham",tail:"redditch",position:[2396,3046],eras:[false,true]},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>2718</v>
+      </c>
+      <c r="E10">
+        <v>2331</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:9,head:"birmingham",tail:"tamworth",position:[2718,2331],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>2154</v>
+      </c>
+      <c r="E11">
+        <v>2511</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:10,head:"birmingham",tail:"walsall",position:[2154,2511],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>1884</v>
+      </c>
+      <c r="E12">
+        <v>3113</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:11,head:"birmingham",tail:"worcester",position:[1884,3113],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>2267</v>
+      </c>
+      <c r="E13">
+        <v>1533</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:12,head:"burton_on_trent",tail:"cannock",position:[2267,1533],eras:[false,true]},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>2974</v>
+      </c>
+      <c r="E14">
+        <v>1281</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:13,head:"burton_on_trent",tail:"derby",position:[2974,1281],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>1940</v>
+      </c>
+      <c r="E15">
+        <v>1149</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:14,head:"burton_on_trent",tail:"stone",position:[1940,1149],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>2735</v>
+      </c>
+      <c r="E16">
+        <v>1757</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:15,head:"burton_on_trent",tail:"tamworth",position:[2735,1757],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>2297</v>
+      </c>
+      <c r="E17">
+        <v>1859</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:16,head:"burton_on_trent",tail:"walsall",position:[2297,1859],eras:[true,false]},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18">
+        <v>1838</v>
+      </c>
+      <c r="E18">
+        <v>1533</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:17,head:"cannock",tail:"stafford",position:[1838,1533],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>2102</v>
+      </c>
+      <c r="E19">
+        <v>1994</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:18,head:"cannock",tail:"walsall",position:[2102,1994],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>1520</v>
+      </c>
+      <c r="E20">
+        <v>1902</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:19,head:"cannock",tail:"wolverhampton",position:[1520,1902],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>942</v>
+      </c>
+      <c r="E21">
+        <v>2742</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:20,head:"coalbrookdale",tail:"kidderminster",position:[942,2742],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>600</v>
+      </c>
+      <c r="E22">
+        <v>2129</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:21,head:"coalbrookdale",tail:"shrewsbury",position:[600,2129],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>1097</v>
+      </c>
+      <c r="E23">
+        <v>2129</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:22,head:"coalbrookdale",tail:"wolverhampton",position:[1097,2129],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>3388</v>
+      </c>
+      <c r="E24">
+        <v>2589</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:23,head:"coventry",tail:"nuneaton",position:[3388,2589],eras:[false,true]},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>3211</v>
+      </c>
+      <c r="E25">
+        <v>801</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:24,head:"derby",tail:"nottingham",position:[3211,801],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26">
+        <v>2591</v>
+      </c>
+      <c r="E26">
+        <v>984</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:25,head:"derby",tail:"uttoxeter",position:[2591,984],eras:[false,true]},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>1347</v>
+      </c>
+      <c r="E27">
+        <v>2819</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:26,head:"dudley",tail:"kidderminster",position:[1347,2819],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>1428</v>
+      </c>
+      <c r="E28">
+        <v>2421</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:27,head:"dudley",tail:"wolverhampton",position:[1428,2421],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>1956</v>
+      </c>
+      <c r="E29">
+        <v>3417</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:28,head:"gloucester",tail:"redditch",position:[1956,3417],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>1700</v>
+      </c>
+      <c r="E30">
+        <v>3679</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:29,head:"gloucester",tail:"worcester",position:[1700,3679],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>1300</v>
+      </c>
+      <c r="E31">
+        <v>3330</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:30,head:"kidderminster",tail:"worcester",position:[1300,3330],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>1825</v>
+      </c>
+      <c r="E32">
+        <v>299</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:31,head:"leek",tail:"stoke_on_trent",position:[1825,299],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>3065</v>
+      </c>
+      <c r="E33">
+        <v>2082</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:32,head:"nuneaton",tail:"tamworth",position:[3065,2082],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>2592</v>
+      </c>
+      <c r="E34">
+        <v>3309</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:33,head:"oxford",tail:"redditch",position:[2592,3309],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <v>1187</v>
+      </c>
+      <c r="E35">
+        <v>1296</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:34,head:"stafford",tail:"stone",position:[1187,1296],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>1399</v>
+      </c>
+      <c r="E36">
+        <v>814</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:35,head:"stoke_on_trent",tail:"stone",position:[1399,814],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37">
+        <v>1351</v>
+      </c>
+      <c r="E37">
+        <v>364</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:36,head:"stoke_on_trent",tail:"warrington",position:[1351,364],eras:[true,true]},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38">
+        <v>1681</v>
+      </c>
+      <c r="E38">
+        <v>933</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:37,head:"stone",tail:"uttoxeter",position:[1681,933],eras:[false,true]},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39">
+        <v>2453</v>
+      </c>
+      <c r="E39">
+        <v>2178</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:38,head:"tamworth",tail:"walsall",position:[2453,2178],eras:[false,true]},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40">
+        <v>1748</v>
+      </c>
+      <c r="E40">
+        <v>2157</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>{uid:39,head:"walsall",tail:"wolverhampton",position:[1748,2157],eras:[true,true]},</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6041269E-15F9-4EFE-902F-BB31111B79C0}">
   <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="A2" sqref="A2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/birmingham/Birmingham.xlsx
+++ b/src/birmingham/Birmingham.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\river-minigames\src\birmingham\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebProjects\river-minigames\src\birmingham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1CF40-5CFC-419B-AC5D-7F012EFEF553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E33B8B6-E5E0-47E3-AC9D-CDE6D040FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3255" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="城市" sheetId="9" r:id="rId1"/>
-    <sheet name="道路(origin)" sheetId="10" r:id="rId2"/>
-    <sheet name="道路" sheetId="12" r:id="rId3"/>
-    <sheet name="产业" sheetId="11" r:id="rId4"/>
+    <sheet name="城市" sheetId="13" r:id="rId1"/>
+    <sheet name="城市槽" sheetId="9" r:id="rId2"/>
+    <sheet name="道路(origin)" sheetId="10" r:id="rId3"/>
+    <sheet name="道路" sheetId="12" r:id="rId4"/>
+    <sheet name="工厂模板" sheetId="16" r:id="rId5"/>
+    <sheet name="产业" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="84">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +321,31 @@
   </si>
   <si>
     <t>warrington</t>
+  </si>
+  <si>
+    <t>anonymous_2</t>
+  </si>
+  <si>
+    <t>berby</t>
+  </si>
+  <si>
+    <t>burton_upon_trent</t>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canal,rail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -645,1275 +672,1799 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A9ED97-9D9A-417B-9E05-7489284E0688}">
-  <dimension ref="A1:F60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320722AF-0EC6-4149-AB14-8FEF4CC08317}">
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F60" sqref="F3:F60"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="A2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="64.75" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A9ED97-9D9A-417B-9E05-7489284E0688}">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="73.25" customWidth="1"/>
+    <col min="8" max="8" width="64.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2867</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>942</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F34" si="0">"{type:"""&amp;B3&amp;""",location:["""&amp;A3&amp;""","&amp;C3&amp;"],position:["&amp;D3&amp;","&amp;E3&amp;"]},"</f>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H34" si="0">"{type:"""&amp;C3&amp;""",location:["""&amp;B3&amp;""","&amp;D3&amp;"],position:["&amp;E3&amp;","&amp;F3&amp;"]},"</f>
         <v>{type:"industry",location:["berby",0],position:[2867,942]},</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3054</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>942</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["berby",1],position:[3054,942]},</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2960</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>754</v>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["berby",2],position:[2960,754]},</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2338</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2717</v>
       </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["birmingham",0],position:[2338,2717]},</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>2524</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2717</v>
       </c>
-      <c r="F7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["birmingham",1],position:[2524,2717]},</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2338</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2529</v>
       </c>
-      <c r="F8" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["birmingham",2],position:[2338,2529]},</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2524</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2529</v>
       </c>
-      <c r="F9" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["birmingham",3],position:[2524,2529]},</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1053</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>918</v>
       </c>
-      <c r="F10" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["stone",0],position:[1053,918]},</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1238</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>918</v>
       </c>
-      <c r="F11" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["stone",1],position:[1238,918]},</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1947</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2163</v>
       </c>
-      <c r="F12" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["walsall",0],position:[1947,2163]},</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>2132</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2163</v>
       </c>
-      <c r="F13" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["walsall",1],position:[2132,2163]},</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2556</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1410</v>
       </c>
-      <c r="F14" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["burton_upon_trent",0],position:[2556,1410]},</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>42</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>2742</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1410</v>
       </c>
-      <c r="F15" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["burton_upon_trent",1],position:[2742,1410]},</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1302</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2071</v>
       </c>
-      <c r="F16" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["wolverhampton",0],position:[1302,2071]},</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>42</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>1486</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2071</v>
       </c>
-      <c r="F17" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["wolverhampton",1],position:[1486,2071]},</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1425</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1293</v>
       </c>
-      <c r="F18" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["stafford",0],position:[1425,1293]},</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>1613</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1293</v>
       </c>
-      <c r="F19" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["stafford",1],position:[1613,1293]},</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1722</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1703</v>
       </c>
-      <c r="F20" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["cannock",0],position:[1722,1703]},</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>42</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1906</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1703</v>
       </c>
-      <c r="F21" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["cannock",1],position:[1906,1703]},</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2616</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1911</v>
       </c>
-      <c r="F22" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["tamworth",0],position:[2616,1911]},</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>42</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>2797</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1911</v>
       </c>
-      <c r="F23" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["tamworth",1],position:[2797,1911]},</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1470</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>495</v>
       </c>
-      <c r="F24" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["stoke_on_trent",0],position:[1470,495]},</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>42</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>1658</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>495</v>
       </c>
-      <c r="F25" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["stoke_on_trent",1],position:[1658,495]},</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1564</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>309</v>
       </c>
-      <c r="F26" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["stoke_on_trent",2],position:[1564,309]},</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3067</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2843</v>
       </c>
-      <c r="F27" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["coventry",0],position:[3067,2843]},</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="C28" t="s">
+        <v>42</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>3254</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2843</v>
       </c>
-      <c r="F28" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["coventry",1],position:[3254,2843]},</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3160</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2655</v>
       </c>
-      <c r="F29" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["coventry",2],position:[3160,2655]},</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1487</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2562</v>
       </c>
-      <c r="F30" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["dudley",0],position:[1487,2562]},</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="C31" t="s">
+        <v>42</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>1672</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2562</v>
       </c>
-      <c r="F31" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["dudley",1],position:[1672,2562]},</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32">
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2083</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>849</v>
       </c>
-      <c r="F32" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["uttoxeter",0],position:[2083,849]},</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="C33" t="s">
+        <v>42</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>2272</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>849</v>
       </c>
-      <c r="F33" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["uttoxeter",1],position:[2272,849]},</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>750</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>2247</v>
       </c>
-      <c r="F34" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>{type:"industry",location:["coalbrookdale",0],position:[750,2247]},</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="C35" t="s">
+        <v>42</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>936</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2247</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" ref="F35:F60" si="1">"{type:"""&amp;B35&amp;""",location:["""&amp;A35&amp;""","&amp;C35&amp;"],position:["&amp;D35&amp;","&amp;E35&amp;"]},"</f>
+      <c r="H35" t="str">
+        <f t="shared" ref="H35:H60" si="1">"{type:"""&amp;C35&amp;""",location:["""&amp;B35&amp;""","&amp;D35&amp;"],position:["&amp;E35&amp;","&amp;F35&amp;"]},"</f>
         <v>{type:"industry",location:["coalbrookdale",1],position:[936,2247]},</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>843</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2059</v>
       </c>
-      <c r="F36" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["coalbrookdale",2],position:[843,2059]},</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1208</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2975</v>
       </c>
-      <c r="F37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["kidderminster",0],position:[1208,2975]},</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="C38" t="s">
+        <v>42</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>1394</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2975</v>
       </c>
-      <c r="F38" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["kidderminster",1],position:[1394,2975]},</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1260</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>3494</v>
       </c>
-      <c r="F39" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["worcester",0],position:[1260,3494]},</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
+      <c r="C40" t="s">
+        <v>42</v>
       </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>1448</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>3494</v>
       </c>
-      <c r="F40" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["worcester",1],position:[1448,3494]},</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41">
         <v>0</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>2034</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>205</v>
       </c>
-      <c r="F41" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["leek",0],position:[2034,205]},</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="C42" t="s">
+        <v>42</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>2221</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>205</v>
       </c>
-      <c r="F42" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["leek",1],position:[2221,205]},</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43">
         <v>0</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>2739</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>264</v>
       </c>
-      <c r="F43" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["belper",0],position:[2739,264]},</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="C44" t="s">
+        <v>42</v>
       </c>
       <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>2926</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>264</v>
       </c>
-      <c r="F44" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["belper",1],position:[2926,264]},</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45">
         <v>2</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>3112</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>264</v>
       </c>
-      <c r="F45" t="str">
+      <c r="H45" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["belper",2],position:[3112,264]},</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>2150</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>3189</v>
       </c>
-      <c r="F46" t="str">
+      <c r="H46" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["redditch",0],position:[2150,3189]},</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="C47" t="s">
+        <v>42</v>
       </c>
       <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>2339</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>3189</v>
       </c>
-      <c r="F47" t="str">
+      <c r="H47" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["redditch",1],position:[2339,3189]},</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>2976</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2315</v>
       </c>
-      <c r="F48" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["nuneaton",0],position:[2976,2315]},</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="C49" t="s">
+        <v>42</v>
       </c>
       <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>3164</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2315</v>
       </c>
-      <c r="F49" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["nuneaton",1],position:[3164,2315]},</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50">
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1108</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>1653</v>
       </c>
-      <c r="F50" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["anonymous_1",0],position:[1108,1653]},</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>952</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>3275</v>
       </c>
-      <c r="F51" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="1"/>
         <v>{type:"industry",location:["anonymous_2",0],position:[952,3275]},</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>43</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>933</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>426</v>
       </c>
-      <c r="F52" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="1"/>
         <v>{type:"merchant",location:["warrington",0],position:[933,426]},</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>43</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
       <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>1122</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>426</v>
       </c>
-      <c r="F53" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="1"/>
         <v>{type:"merchant",location:["warrington",1],position:[1122,426]},</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>3437</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>680</v>
       </c>
-      <c r="F54" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="1"/>
         <v>{type:"merchant",location:["nottingham",0],position:[3437,680]},</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>43</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
       <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>3625</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>680</v>
       </c>
-      <c r="F55" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="1"/>
         <v>{type:"merchant",location:["nottingham",1],position:[3625,680]},</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>43</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>3127</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>3328</v>
       </c>
-      <c r="F56" t="str">
+      <c r="H56" t="str">
         <f t="shared" si="1"/>
         <v>{type:"merchant",location:["oxford",0],position:[3127,3328]},</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>43</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>3314</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>3328</v>
       </c>
-      <c r="F57" t="str">
+      <c r="H57" t="str">
         <f t="shared" si="1"/>
         <v>{type:"merchant",location:["oxford",1],position:[3314,3328]},</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>43</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>2238</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>3632</v>
       </c>
-      <c r="F58" t="str">
+      <c r="H58" t="str">
         <f t="shared" si="1"/>
         <v>{type:"merchant",location:["gloucester",0],position:[2238,3632]},</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>43</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
       <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>2422</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>3632</v>
       </c>
-      <c r="F59" t="str">
+      <c r="H59" t="str">
         <f t="shared" si="1"/>
         <v>{type:"merchant",location:["gloucester",1],position:[2422,3632]},</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>43</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>269</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>2268</v>
       </c>
-      <c r="F60" t="str">
+      <c r="H60" t="str">
         <f t="shared" si="1"/>
         <v>{type:"merchant",location:["shrewsbury",0],position:[269,2268]},</v>
       </c>
@@ -1924,7 +2475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495315FD-5477-4869-A876-91E9A318A711}">
   <dimension ref="A1:J40"/>
   <sheetViews>
@@ -1932,7 +2483,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="A1:H40"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3034,22 +3585,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DF367E-5338-4B57-BE09-5A20016AD75D}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="115.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3066,16 +3616,10 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3091,18 +3635,11 @@
       <c r="E2">
         <v>1704</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <f>"{uid:"&amp;A2&amp;",head:"""&amp;B2&amp;""",tail:"""&amp;C2&amp;""",position:["&amp;D2&amp;","&amp;E2&amp;"],eras:["&amp;LOWER(F2)&amp;","&amp;LOWER(G2)&amp;"]},"</f>
-        <v>{uid:1,head:"anonymous_1",tail:"cannock",position:[1439,1704],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3118,18 +3655,11 @@
       <c r="E3">
         <v>602</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H40" si="0">"{uid:"&amp;A3&amp;",head:"""&amp;B3&amp;""",tail:"""&amp;C3&amp;""",position:["&amp;D3&amp;","&amp;E3&amp;"],eras:["&amp;LOWER(F3)&amp;","&amp;LOWER(G3)&amp;"]},"</f>
-        <v>{uid:2,head:"belper",tail:"derby",position:[2994,602],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3145,18 +3675,11 @@
       <c r="E4">
         <v>251</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:3,head:"belper",tail:"leek",position:[2515,251],eras:[false,true]},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3172,18 +3695,11 @@
       <c r="E5">
         <v>2868</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:4,head:"birmingham",tail:"coventry",position:[2816,2868],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3199,18 +3715,11 @@
       <c r="E6">
         <v>2681</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:5,head:"birmingham",tail:"dudley",position:[2012,2681],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3226,18 +3735,11 @@
       <c r="E7">
         <v>2556</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:6,head:"birmingham",tail:"nuneaton",position:[2792,2556],eras:[false,true]},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3253,18 +3755,11 @@
       <c r="E8">
         <v>3054</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:7,head:"birmingham",tail:"oxford",position:[2808,3054],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3280,18 +3775,11 @@
       <c r="E9">
         <v>3046</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:8,head:"birmingham",tail:"redditch",position:[2396,3046],eras:[false,true]},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3307,18 +3795,11 @@
       <c r="E10">
         <v>2331</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:9,head:"birmingham",tail:"tamworth",position:[2718,2331],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3334,18 +3815,11 @@
       <c r="E11">
         <v>2511</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:10,head:"birmingham",tail:"walsall",position:[2154,2511],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3361,18 +3835,11 @@
       <c r="E12">
         <v>3113</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:11,head:"birmingham",tail:"worcester",position:[1884,3113],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3388,18 +3855,11 @@
       <c r="E13">
         <v>1533</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:12,head:"burton_on_trent",tail:"cannock",position:[2267,1533],eras:[false,true]},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3415,18 +3875,11 @@
       <c r="E14">
         <v>1281</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:13,head:"burton_on_trent",tail:"derby",position:[2974,1281],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3442,18 +3895,11 @@
       <c r="E15">
         <v>1149</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:14,head:"burton_on_trent",tail:"stone",position:[1940,1149],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3469,18 +3915,11 @@
       <c r="E16">
         <v>1757</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:15,head:"burton_on_trent",tail:"tamworth",position:[2735,1757],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3496,18 +3935,11 @@
       <c r="E17">
         <v>1859</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:16,head:"burton_on_trent",tail:"walsall",position:[2297,1859],eras:[true,false]},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3523,18 +3955,11 @@
       <c r="E18">
         <v>1533</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:17,head:"cannock",tail:"stafford",position:[1838,1533],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3550,18 +3975,11 @@
       <c r="E19">
         <v>1994</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:18,head:"cannock",tail:"walsall",position:[2102,1994],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3577,18 +3995,11 @@
       <c r="E20">
         <v>1902</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:19,head:"cannock",tail:"wolverhampton",position:[1520,1902],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3604,18 +4015,11 @@
       <c r="E21">
         <v>2742</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:20,head:"coalbrookdale",tail:"kidderminster",position:[942,2742],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3631,18 +4035,11 @@
       <c r="E22">
         <v>2129</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:21,head:"coalbrookdale",tail:"shrewsbury",position:[600,2129],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3658,18 +4055,11 @@
       <c r="E23">
         <v>2129</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:22,head:"coalbrookdale",tail:"wolverhampton",position:[1097,2129],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3685,18 +4075,11 @@
       <c r="E24">
         <v>2589</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:23,head:"coventry",tail:"nuneaton",position:[3388,2589],eras:[false,true]},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3712,18 +4095,11 @@
       <c r="E25">
         <v>801</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:24,head:"derby",tail:"nottingham",position:[3211,801],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3739,18 +4115,11 @@
       <c r="E26">
         <v>984</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:25,head:"derby",tail:"uttoxeter",position:[2591,984],eras:[false,true]},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3766,18 +4135,11 @@
       <c r="E27">
         <v>2819</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:26,head:"dudley",tail:"kidderminster",position:[1347,2819],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3793,18 +4155,11 @@
       <c r="E28">
         <v>2421</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:27,head:"dudley",tail:"wolverhampton",position:[1428,2421],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3820,18 +4175,11 @@
       <c r="E29">
         <v>3417</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:28,head:"gloucester",tail:"redditch",position:[1956,3417],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3847,18 +4195,11 @@
       <c r="E30">
         <v>3679</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:29,head:"gloucester",tail:"worcester",position:[1700,3679],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3874,18 +4215,11 @@
       <c r="E31">
         <v>3330</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:30,head:"kidderminster",tail:"worcester",position:[1300,3330],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3901,18 +4235,11 @@
       <c r="E32">
         <v>299</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:31,head:"leek",tail:"stoke_on_trent",position:[1825,299],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3928,18 +4255,11 @@
       <c r="E33">
         <v>2082</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:32,head:"nuneaton",tail:"tamworth",position:[3065,2082],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3955,18 +4275,11 @@
       <c r="E34">
         <v>3309</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:33,head:"oxford",tail:"redditch",position:[2592,3309],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3982,18 +4295,11 @@
       <c r="E35">
         <v>1296</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:34,head:"stafford",tail:"stone",position:[1187,1296],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4009,18 +4315,11 @@
       <c r="E36">
         <v>814</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:35,head:"stoke_on_trent",tail:"stone",position:[1399,814],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4036,18 +4335,11 @@
       <c r="E37">
         <v>364</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:36,head:"stoke_on_trent",tail:"warrington",position:[1351,364],eras:[true,true]},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4063,18 +4355,11 @@
       <c r="E38">
         <v>933</v>
       </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:37,head:"stone",tail:"uttoxeter",position:[1681,933],eras:[false,true]},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4090,18 +4375,11 @@
       <c r="E39">
         <v>2178</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:38,head:"tamworth",tail:"walsall",position:[2453,2178],eras:[false,true]},</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4117,15 +4395,8 @@
       <c r="E40">
         <v>2157</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>{uid:39,head:"walsall",tail:"wolverhampton",position:[1748,2157],eras:[true,true]},</v>
+      <c r="F40" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4134,7 +4405,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1100460-A9C8-4D01-AD7E-C403001D534E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6041269E-15F9-4EFE-902F-BB31111B79C0}">
   <dimension ref="A2:A7"/>
   <sheetViews>
